--- a/Code/Results/Cases/Case_4_203/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_203/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.048724686061554</v>
+        <v>1.085237698923785</v>
       </c>
       <c r="D2">
-        <v>1.05708423081789</v>
+        <v>1.080387921002492</v>
       </c>
       <c r="E2">
-        <v>1.06508315288227</v>
+        <v>1.098412106269536</v>
       </c>
       <c r="F2">
-        <v>1.069130660090841</v>
+        <v>1.104248630094268</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063997347659226</v>
+        <v>1.062205505190174</v>
       </c>
       <c r="J2">
-        <v>1.069539685960362</v>
+        <v>1.090093550749978</v>
       </c>
       <c r="K2">
-        <v>1.067801703754924</v>
+        <v>1.08306148668861</v>
       </c>
       <c r="L2">
-        <v>1.075704552986446</v>
+        <v>1.101039386913871</v>
       </c>
       <c r="M2">
-        <v>1.079704125073377</v>
+        <v>1.106861271754477</v>
       </c>
       <c r="N2">
-        <v>1.071058554992342</v>
+        <v>1.091641608627522</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.056542290796624</v>
+        <v>1.086762539613611</v>
       </c>
       <c r="D3">
-        <v>1.063322550941291</v>
+        <v>1.081605162027854</v>
       </c>
       <c r="E3">
-        <v>1.072576856203995</v>
+        <v>1.09992388394374</v>
       </c>
       <c r="F3">
-        <v>1.076852853275189</v>
+        <v>1.105816679204168</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067280430968028</v>
+        <v>1.062755597980151</v>
       </c>
       <c r="J3">
-        <v>1.075601861033557</v>
+        <v>1.091278884427754</v>
       </c>
       <c r="K3">
-        <v>1.073204582808548</v>
+        <v>1.084096007792069</v>
       </c>
       <c r="L3">
-        <v>1.082358265638967</v>
+        <v>1.102371113842721</v>
       </c>
       <c r="M3">
-        <v>1.086588484982458</v>
+        <v>1.108250208109878</v>
       </c>
       <c r="N3">
-        <v>1.077129339049482</v>
+        <v>1.092828625615079</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.061446943455131</v>
+        <v>1.087747598767711</v>
       </c>
       <c r="D4">
-        <v>1.067237764264286</v>
+        <v>1.082391209728601</v>
       </c>
       <c r="E4">
-        <v>1.077283424264249</v>
+        <v>1.100900824813542</v>
       </c>
       <c r="F4">
-        <v>1.081703976092889</v>
+        <v>1.106830126128008</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069327823972231</v>
+        <v>1.063109310588026</v>
       </c>
       <c r="J4">
-        <v>1.079399519809862</v>
+        <v>1.092043796377119</v>
       </c>
       <c r="K4">
-        <v>1.076587157822786</v>
+        <v>1.084763252286093</v>
       </c>
       <c r="L4">
-        <v>1.086530687543513</v>
+        <v>1.103231030583713</v>
       </c>
       <c r="M4">
-        <v>1.09090702787262</v>
+        <v>1.109147246451572</v>
       </c>
       <c r="N4">
-        <v>1.080932390936848</v>
+        <v>1.093594623827149</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.06347412939415</v>
+        <v>1.088161339044188</v>
       </c>
       <c r="D5">
-        <v>1.068856238419885</v>
+        <v>1.082721289545602</v>
       </c>
       <c r="E5">
-        <v>1.079229911658033</v>
+        <v>1.101311231554062</v>
       </c>
       <c r="F5">
-        <v>1.083710502595256</v>
+        <v>1.107255902955811</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07017102544969</v>
+        <v>1.063257479683908</v>
       </c>
       <c r="J5">
-        <v>1.080967754039706</v>
+        <v>1.092364874032315</v>
       </c>
       <c r="K5">
-        <v>1.077983470014305</v>
+        <v>1.085043250178556</v>
       </c>
       <c r="L5">
-        <v>1.088254690307985</v>
+        <v>1.103592115503629</v>
       </c>
       <c r="M5">
-        <v>1.092691764688159</v>
+        <v>1.109523962257133</v>
       </c>
       <c r="N5">
-        <v>1.082502852239178</v>
+        <v>1.093916157449443</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.063812524092052</v>
+        <v>1.088230785887426</v>
       </c>
       <c r="D6">
-        <v>1.06912641932639</v>
+        <v>1.082776689595057</v>
       </c>
       <c r="E6">
-        <v>1.079554902947385</v>
+        <v>1.101380123318447</v>
       </c>
       <c r="F6">
-        <v>1.08404553336688</v>
+        <v>1.107327376778868</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070311600105727</v>
+        <v>1.0632823268412</v>
       </c>
       <c r="J6">
-        <v>1.081229452335351</v>
+        <v>1.092418755751136</v>
       </c>
       <c r="K6">
-        <v>1.078216448145986</v>
+        <v>1.085090233206481</v>
       </c>
       <c r="L6">
-        <v>1.088542442012405</v>
+        <v>1.103652718578068</v>
       </c>
       <c r="M6">
-        <v>1.092989674584022</v>
+        <v>1.109587191296958</v>
       </c>
       <c r="N6">
-        <v>1.082764922176419</v>
+        <v>1.093970115686485</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.061474164629496</v>
+        <v>1.087753128663257</v>
       </c>
       <c r="D7">
-        <v>1.067259496386632</v>
+        <v>1.082395621736297</v>
       </c>
       <c r="E7">
-        <v>1.077309557239496</v>
+        <v>1.100906309855076</v>
       </c>
       <c r="F7">
-        <v>1.081730914117386</v>
+        <v>1.106835816454907</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069339158580551</v>
+        <v>1.063111292515951</v>
       </c>
       <c r="J7">
-        <v>1.079420583801009</v>
+        <v>1.092048088555379</v>
       </c>
       <c r="K7">
-        <v>1.076605914675049</v>
+        <v>1.084766995635591</v>
       </c>
       <c r="L7">
-        <v>1.08655383975474</v>
+        <v>1.103235857076057</v>
       </c>
       <c r="M7">
-        <v>1.090930994280802</v>
+        <v>1.109152281706181</v>
       </c>
       <c r="N7">
-        <v>1.080953484841278</v>
+        <v>1.093598922100794</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.051399866209271</v>
+        <v>1.085753365130636</v>
       </c>
       <c r="D8">
-        <v>1.059218632008294</v>
+        <v>1.080799625676689</v>
       </c>
       <c r="E8">
-        <v>1.067646375351037</v>
+        <v>1.098923288142249</v>
       </c>
       <c r="F8">
-        <v>1.07177181948144</v>
+        <v>1.104778809726809</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065123391779401</v>
+        <v>1.062391876157886</v>
       </c>
       <c r="J8">
-        <v>1.071615321981764</v>
+        <v>1.090494573861748</v>
       </c>
       <c r="K8">
-        <v>1.069652027866693</v>
+        <v>1.083411558392811</v>
       </c>
       <c r="L8">
-        <v>1.077981842758058</v>
+        <v>1.101489826968603</v>
       </c>
       <c r="M8">
-        <v>1.082060042898311</v>
+        <v>1.107331024763541</v>
       </c>
       <c r="N8">
-        <v>1.073137138654974</v>
+        <v>1.092043201238107</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.032363995378005</v>
+        <v>1.082216800851703</v>
       </c>
       <c r="D9">
-        <v>1.044040905293792</v>
+        <v>1.07797485382716</v>
       </c>
       <c r="E9">
-        <v>1.049432016296818</v>
+        <v>1.095418815241004</v>
       </c>
       <c r="F9">
-        <v>1.053007959475988</v>
+        <v>1.101144678430984</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057059786379537</v>
+        <v>1.061106917701758</v>
       </c>
       <c r="J9">
-        <v>1.056823473088906</v>
+        <v>1.087740887320037</v>
       </c>
       <c r="K9">
-        <v>1.056457691275776</v>
+        <v>1.081006321212879</v>
       </c>
       <c r="L9">
-        <v>1.061770955843108</v>
+        <v>1.098399012042137</v>
       </c>
       <c r="M9">
-        <v>1.065295819468001</v>
+        <v>1.104108430750929</v>
       </c>
       <c r="N9">
-        <v>1.058324283640038</v>
+        <v>1.089285604145656</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.018643429679297</v>
+        <v>1.079850032304455</v>
       </c>
       <c r="D10">
-        <v>1.033119393087174</v>
+        <v>1.076082960195333</v>
       </c>
       <c r="E10">
-        <v>1.036338865755218</v>
+        <v>1.093075223245282</v>
       </c>
       <c r="F10">
-        <v>1.03952509640063</v>
+        <v>1.098715109313725</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051185529694296</v>
+        <v>1.060238475440874</v>
       </c>
       <c r="J10">
-        <v>1.046136398376248</v>
+        <v>1.085893815990888</v>
       </c>
       <c r="K10">
-        <v>1.04691535128727</v>
+        <v>1.079391205330557</v>
       </c>
       <c r="L10">
-        <v>1.050081608852456</v>
+        <v>1.096328570800395</v>
       </c>
       <c r="M10">
-        <v>1.053215590959197</v>
+        <v>1.101950646300909</v>
       </c>
       <c r="N10">
-        <v>1.047622032055464</v>
+        <v>1.087435909763357</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.012413733257999</v>
+        <v>1.078822934189897</v>
       </c>
       <c r="D11">
-        <v>1.028166817523894</v>
+        <v>1.075261602126025</v>
       </c>
       <c r="E11">
-        <v>1.030403678586344</v>
+        <v>1.092058592589822</v>
       </c>
       <c r="F11">
-        <v>1.033414416692636</v>
+        <v>1.097661355301779</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048504739004751</v>
+        <v>1.059859585383999</v>
       </c>
       <c r="J11">
-        <v>1.04127905216361</v>
+        <v>1.085091250442665</v>
       </c>
       <c r="K11">
-        <v>1.04257640459075</v>
+        <v>1.078689008885816</v>
       </c>
       <c r="L11">
-        <v>1.044774133765931</v>
+        <v>1.095429603639667</v>
       </c>
       <c r="M11">
-        <v>1.047732547741655</v>
+        <v>1.101013976068518</v>
       </c>
       <c r="N11">
-        <v>1.042757787854059</v>
+        <v>1.08663220448</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.010051976649601</v>
+        <v>1.078441073146297</v>
       </c>
       <c r="D12">
-        <v>1.026290356013266</v>
+        <v>1.074956182259982</v>
       </c>
       <c r="E12">
-        <v>1.028155143874409</v>
+        <v>1.091680685282598</v>
       </c>
       <c r="F12">
-        <v>1.031099563325683</v>
+        <v>1.097269674217945</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047486479453514</v>
+        <v>1.059718416763145</v>
       </c>
       <c r="J12">
-        <v>1.039436928314164</v>
+        <v>1.084792717836671</v>
       </c>
       <c r="K12">
-        <v>1.040930631581537</v>
+        <v>1.078427748433628</v>
       </c>
       <c r="L12">
-        <v>1.042762109373085</v>
+        <v>1.09509531043858</v>
       </c>
       <c r="M12">
-        <v>1.045654251838665</v>
+        <v>1.100665695575298</v>
       </c>
       <c r="N12">
-        <v>1.040913047977452</v>
+        <v>1.086333247923463</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.010560820842374</v>
+        <v>1.078522999680866</v>
       </c>
       <c r="D13">
-        <v>1.026694588755711</v>
+        <v>1.075021710946068</v>
       </c>
       <c r="E13">
-        <v>1.028639521293459</v>
+        <v>1.091761760743747</v>
       </c>
       <c r="F13">
-        <v>1.031598219697774</v>
+        <v>1.097353703505256</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047705950599491</v>
+        <v>1.05974871752392</v>
       </c>
       <c r="J13">
-        <v>1.03983384396825</v>
+        <v>1.084856773405542</v>
       </c>
       <c r="K13">
-        <v>1.041285250908218</v>
+        <v>1.078483809408446</v>
       </c>
       <c r="L13">
-        <v>1.043195596464309</v>
+        <v>1.095167034648946</v>
       </c>
       <c r="M13">
-        <v>1.046102004176571</v>
+        <v>1.10074041932875</v>
       </c>
       <c r="N13">
-        <v>1.041310527297294</v>
+        <v>1.086397394458589</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.012219511953577</v>
+        <v>1.078791376655471</v>
       </c>
       <c r="D14">
-        <v>1.028012481032194</v>
+        <v>1.075236362816013</v>
       </c>
       <c r="E14">
-        <v>1.030218735627202</v>
+        <v>1.092027360528621</v>
       </c>
       <c r="F14">
-        <v>1.033224015677091</v>
+        <v>1.097628984381813</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04842104005117</v>
+        <v>1.059847925177226</v>
       </c>
       <c r="J14">
-        <v>1.0411275757241</v>
+        <v>1.08506658233878</v>
       </c>
       <c r="K14">
-        <v>1.042441078776842</v>
+        <v>1.078667421895821</v>
       </c>
       <c r="L14">
-        <v>1.044608670174971</v>
+        <v>1.095401978593749</v>
       </c>
       <c r="M14">
-        <v>1.04756162838918</v>
+        <v>1.100985194477274</v>
       </c>
       <c r="N14">
-        <v>1.04260609630063</v>
+        <v>1.086607501344578</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.013235013746435</v>
+        <v>1.078956685752986</v>
       </c>
       <c r="D15">
-        <v>1.028819488600967</v>
+        <v>1.075368572857165</v>
       </c>
       <c r="E15">
-        <v>1.031185789354208</v>
+        <v>1.092190967231175</v>
       </c>
       <c r="F15">
-        <v>1.034219615900903</v>
+        <v>1.09779855796726</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048858588784337</v>
+        <v>1.059908992925094</v>
       </c>
       <c r="J15">
-        <v>1.041919557098685</v>
+        <v>1.085195796129709</v>
       </c>
       <c r="K15">
-        <v>1.043148608092349</v>
+        <v>1.07878049397588</v>
       </c>
       <c r="L15">
-        <v>1.045473814960251</v>
+        <v>1.095546685136471</v>
       </c>
       <c r="M15">
-        <v>1.048455310797233</v>
+        <v>1.101135960633842</v>
       </c>
       <c r="N15">
-        <v>1.043399202379609</v>
+        <v>1.08673689863391</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.019050430988528</v>
+        <v>1.079918148728742</v>
       </c>
       <c r="D16">
-        <v>1.033443100904464</v>
+        <v>1.076137425008185</v>
       </c>
       <c r="E16">
-        <v>1.036726835094159</v>
+        <v>1.093142654143528</v>
       </c>
       <c r="F16">
-        <v>1.039924560673314</v>
+        <v>1.09878500615741</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05136039949049</v>
+        <v>1.060263560765613</v>
       </c>
       <c r="J16">
-        <v>1.046453646355626</v>
+        <v>1.085947020580215</v>
       </c>
       <c r="K16">
-        <v>1.04719870478199</v>
+        <v>1.079437747380499</v>
       </c>
       <c r="L16">
-        <v>1.050428367521846</v>
+        <v>1.096388179911411</v>
       </c>
       <c r="M16">
-        <v>1.053573859508788</v>
+        <v>1.102012760083566</v>
       </c>
       <c r="N16">
-        <v>1.047939730563362</v>
+        <v>1.087489189909303</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.022618095589095</v>
+        <v>1.08052063397252</v>
       </c>
       <c r="D17">
-        <v>1.036281359419732</v>
+        <v>1.076619123565292</v>
       </c>
       <c r="E17">
-        <v>1.040128769049073</v>
+        <v>1.093739123287053</v>
       </c>
       <c r="F17">
-        <v>1.043427419181021</v>
+        <v>1.099403308092846</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052891737217015</v>
+        <v>1.060485206292425</v>
       </c>
       <c r="J17">
-        <v>1.049234007839983</v>
+        <v>1.086417496449979</v>
       </c>
       <c r="K17">
-        <v>1.049681805959048</v>
+        <v>1.079849259880762</v>
       </c>
       <c r="L17">
-        <v>1.053467969290539</v>
+        <v>1.096915364910024</v>
       </c>
       <c r="M17">
-        <v>1.05671456890799</v>
+        <v>1.102562121924176</v>
       </c>
       <c r="N17">
-        <v>1.050724040479938</v>
+        <v>1.087960333908766</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.024671536691143</v>
+        <v>1.080871834898749</v>
       </c>
       <c r="D18">
-        <v>1.037915547893728</v>
+        <v>1.076899882675289</v>
       </c>
       <c r="E18">
-        <v>1.042087715581387</v>
+        <v>1.094086856739539</v>
       </c>
       <c r="F18">
-        <v>1.045444591476894</v>
+        <v>1.099763786426212</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053771842841798</v>
+        <v>1.0606142137785</v>
       </c>
       <c r="J18">
-        <v>1.050833826575692</v>
+        <v>1.086691650177847</v>
       </c>
       <c r="K18">
-        <v>1.051110401737656</v>
+        <v>1.080089014535199</v>
       </c>
       <c r="L18">
-        <v>1.055217462071527</v>
+        <v>1.09722262694131</v>
       </c>
       <c r="M18">
-        <v>1.058522434982454</v>
+        <v>1.10288233065152</v>
       </c>
       <c r="N18">
-        <v>1.052326131141754</v>
+        <v>1.088234876966374</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.025367163770412</v>
+        <v>1.080991548567729</v>
       </c>
       <c r="D19">
-        <v>1.038469240120534</v>
+        <v>1.076995579291343</v>
       </c>
       <c r="E19">
-        <v>1.04275147999036</v>
+        <v>1.094205395124954</v>
       </c>
       <c r="F19">
-        <v>1.04612810386614</v>
+        <v>1.09988667222377</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054069767550734</v>
+        <v>1.060658155540291</v>
       </c>
       <c r="J19">
-        <v>1.051375700450885</v>
+        <v>1.086785084475738</v>
       </c>
       <c r="K19">
-        <v>1.051594249358002</v>
+        <v>1.080170718465449</v>
       </c>
       <c r="L19">
-        <v>1.055810118153053</v>
+        <v>1.097327355564372</v>
       </c>
       <c r="M19">
-        <v>1.059134895968264</v>
+        <v>1.102991475691988</v>
       </c>
       <c r="N19">
-        <v>1.052868774540004</v>
+        <v>1.088328443951686</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.022238195106349</v>
+        <v>1.080456015681416</v>
       </c>
       <c r="D20">
-        <v>1.035979068599725</v>
+        <v>1.076567463383548</v>
       </c>
       <c r="E20">
-        <v>1.039766422422587</v>
+        <v>1.093675146156468</v>
       </c>
       <c r="F20">
-        <v>1.043054311502489</v>
+        <v>1.099336987459453</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052728806716592</v>
+        <v>1.060461454257026</v>
       </c>
       <c r="J20">
-        <v>1.048937991425961</v>
+        <v>1.086367046502483</v>
       </c>
       <c r="K20">
-        <v>1.049417456356919</v>
+        <v>1.079805136834546</v>
       </c>
       <c r="L20">
-        <v>1.053144299654146</v>
+        <v>1.0968588274259</v>
       </c>
       <c r="M20">
-        <v>1.056380114292435</v>
+        <v>1.102503203906059</v>
       </c>
       <c r="N20">
-        <v>1.050427603688655</v>
+        <v>1.087909812316558</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.011732426017164</v>
+        <v>1.078712356095737</v>
       </c>
       <c r="D21">
-        <v>1.027625440584367</v>
+        <v>1.075173162381936</v>
       </c>
       <c r="E21">
-        <v>1.029754944442933</v>
+        <v>1.091949155963379</v>
       </c>
       <c r="F21">
-        <v>1.032746539680405</v>
+        <v>1.0975479285514</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048211101419602</v>
+        <v>1.05981872295299</v>
       </c>
       <c r="J21">
-        <v>1.040747679320508</v>
+        <v>1.085004810604206</v>
       </c>
       <c r="K21">
-        <v>1.042101683561701</v>
+        <v>1.078613364613156</v>
       </c>
       <c r="L21">
-        <v>1.044193707575823</v>
+        <v>1.095332803925691</v>
       </c>
       <c r="M21">
-        <v>1.047132987978132</v>
+        <v>1.100913124289306</v>
       </c>
       <c r="N21">
-        <v>1.042225660400571</v>
+        <v>1.086545641887055</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.004847982141169</v>
+        <v>1.077614012018516</v>
       </c>
       <c r="D22">
-        <v>1.022157979424864</v>
+        <v>1.074294591938371</v>
       </c>
       <c r="E22">
-        <v>1.023203674047378</v>
+        <v>1.09086230158654</v>
       </c>
       <c r="F22">
-        <v>1.026002350364245</v>
+        <v>1.096421509830987</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045239360460304</v>
+        <v>1.0594121109546</v>
       </c>
       <c r="J22">
-        <v>1.035376857232425</v>
+        <v>1.084145861708309</v>
       </c>
       <c r="K22">
-        <v>1.037302901796838</v>
+        <v>1.0778615391038</v>
       </c>
       <c r="L22">
-        <v>1.038329062757636</v>
+        <v>1.094371148334863</v>
       </c>
       <c r="M22">
-        <v>1.041075714983739</v>
+        <v>1.099911294067123</v>
       </c>
       <c r="N22">
-        <v>1.03684721112908</v>
+        <v>1.085685473185204</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.008525650518288</v>
+        <v>1.07819646127411</v>
       </c>
       <c r="D23">
-        <v>1.025078001878095</v>
+        <v>1.074760522930815</v>
       </c>
       <c r="E23">
-        <v>1.026702448477809</v>
+        <v>1.091438623631512</v>
       </c>
       <c r="F23">
-        <v>1.029604067597345</v>
+        <v>1.097018797313884</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046827880275686</v>
+        <v>1.05962790210053</v>
       </c>
       <c r="J23">
-        <v>1.038246257065488</v>
+        <v>1.084601442243338</v>
       </c>
       <c r="K23">
-        <v>1.039866807531164</v>
+        <v>1.078260336282076</v>
       </c>
       <c r="L23">
-        <v>1.041461848976266</v>
+        <v>1.09488114997478</v>
       </c>
       <c r="M23">
-        <v>1.044311243959389</v>
+        <v>1.100442583657715</v>
       </c>
       <c r="N23">
-        <v>1.039720685839031</v>
+        <v>1.086141700696848</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.022409940492172</v>
+        <v>1.080485214581129</v>
       </c>
       <c r="D24">
-        <v>1.036115726451096</v>
+        <v>1.076590807037412</v>
       </c>
       <c r="E24">
-        <v>1.039930229289679</v>
+        <v>1.093704055214788</v>
       </c>
       <c r="F24">
-        <v>1.043222982800375</v>
+        <v>1.099366955414356</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05280246833309</v>
+        <v>1.060472187628035</v>
       </c>
       <c r="J24">
-        <v>1.049071815988777</v>
+        <v>1.086389843487018</v>
       </c>
       <c r="K24">
-        <v>1.049536965391411</v>
+        <v>1.079825074985541</v>
       </c>
       <c r="L24">
-        <v>1.053290624245326</v>
+        <v>1.096884375010966</v>
       </c>
       <c r="M24">
-        <v>1.056531314000915</v>
+        <v>1.102529827116998</v>
       </c>
       <c r="N24">
-        <v>1.0505616182977</v>
+        <v>1.087932641675426</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.037453306144391</v>
+        <v>1.083132647106508</v>
       </c>
       <c r="D25">
-        <v>1.048096200486539</v>
+        <v>1.078706634124457</v>
       </c>
       <c r="E25">
-        <v>1.05429607082588</v>
+        <v>1.096326053967808</v>
       </c>
       <c r="F25">
-        <v>1.058017829851623</v>
+        <v>1.102085354287413</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059226519559209</v>
+        <v>1.061441175769652</v>
       </c>
       <c r="J25">
-        <v>1.060782772130862</v>
+        <v>1.088454740647201</v>
       </c>
       <c r="K25">
-        <v>1.059991099117057</v>
+        <v>1.081630156475764</v>
       </c>
       <c r="L25">
-        <v>1.066106173546836</v>
+        <v>1.099199774896033</v>
       </c>
       <c r="M25">
-        <v>1.069777629975672</v>
+        <v>1.104943170743216</v>
       </c>
       <c r="N25">
-        <v>1.062289205340772</v>
+        <v>1.090000471226424</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_203/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_203/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.085237698923785</v>
+        <v>1.048724686061555</v>
       </c>
       <c r="D2">
-        <v>1.080387921002492</v>
+        <v>1.057084230817891</v>
       </c>
       <c r="E2">
-        <v>1.098412106269536</v>
+        <v>1.06508315288227</v>
       </c>
       <c r="F2">
-        <v>1.104248630094268</v>
+        <v>1.069130660090841</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062205505190174</v>
+        <v>1.063997347659227</v>
       </c>
       <c r="J2">
-        <v>1.090093550749978</v>
+        <v>1.069539685960362</v>
       </c>
       <c r="K2">
-        <v>1.08306148668861</v>
+        <v>1.067801703754925</v>
       </c>
       <c r="L2">
-        <v>1.101039386913871</v>
+        <v>1.075704552986447</v>
       </c>
       <c r="M2">
-        <v>1.106861271754477</v>
+        <v>1.079704125073378</v>
       </c>
       <c r="N2">
-        <v>1.091641608627522</v>
+        <v>1.071058554992343</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.086762539613611</v>
+        <v>1.056542290796626</v>
       </c>
       <c r="D3">
-        <v>1.081605162027854</v>
+        <v>1.063322550941293</v>
       </c>
       <c r="E3">
-        <v>1.09992388394374</v>
+        <v>1.072576856203997</v>
       </c>
       <c r="F3">
-        <v>1.105816679204168</v>
+        <v>1.076852853275191</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062755597980151</v>
+        <v>1.067280430968029</v>
       </c>
       <c r="J3">
-        <v>1.091278884427754</v>
+        <v>1.075601861033559</v>
       </c>
       <c r="K3">
-        <v>1.084096007792069</v>
+        <v>1.07320458280855</v>
       </c>
       <c r="L3">
-        <v>1.102371113842721</v>
+        <v>1.082358265638968</v>
       </c>
       <c r="M3">
-        <v>1.108250208109878</v>
+        <v>1.08658848498246</v>
       </c>
       <c r="N3">
-        <v>1.092828625615079</v>
+        <v>1.077129339049484</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.087747598767711</v>
+        <v>1.061446943455133</v>
       </c>
       <c r="D4">
-        <v>1.082391209728601</v>
+        <v>1.067237764264287</v>
       </c>
       <c r="E4">
-        <v>1.100900824813542</v>
+        <v>1.07728342426425</v>
       </c>
       <c r="F4">
-        <v>1.106830126128008</v>
+        <v>1.081703976092891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063109310588026</v>
+        <v>1.069327823972232</v>
       </c>
       <c r="J4">
-        <v>1.092043796377119</v>
+        <v>1.079399519809864</v>
       </c>
       <c r="K4">
-        <v>1.084763252286093</v>
+        <v>1.076587157822788</v>
       </c>
       <c r="L4">
-        <v>1.103231030583713</v>
+        <v>1.086530687543515</v>
       </c>
       <c r="M4">
-        <v>1.109147246451572</v>
+        <v>1.090907027872622</v>
       </c>
       <c r="N4">
-        <v>1.093594623827149</v>
+        <v>1.08093239093685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.088161339044188</v>
+        <v>1.063474129394152</v>
       </c>
       <c r="D5">
-        <v>1.082721289545602</v>
+        <v>1.068856238419887</v>
       </c>
       <c r="E5">
-        <v>1.101311231554062</v>
+        <v>1.079229911658036</v>
       </c>
       <c r="F5">
-        <v>1.107255902955811</v>
+        <v>1.083710502595258</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063257479683908</v>
+        <v>1.070171025449691</v>
       </c>
       <c r="J5">
-        <v>1.092364874032315</v>
+        <v>1.080967754039708</v>
       </c>
       <c r="K5">
-        <v>1.085043250178556</v>
+        <v>1.077983470014306</v>
       </c>
       <c r="L5">
-        <v>1.103592115503629</v>
+        <v>1.088254690307988</v>
       </c>
       <c r="M5">
-        <v>1.109523962257133</v>
+        <v>1.092691764688162</v>
       </c>
       <c r="N5">
-        <v>1.093916157449443</v>
+        <v>1.082502852239179</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.088230785887426</v>
+        <v>1.063812524092052</v>
       </c>
       <c r="D6">
-        <v>1.082776689595057</v>
+        <v>1.06912641932639</v>
       </c>
       <c r="E6">
-        <v>1.101380123318447</v>
+        <v>1.079554902947384</v>
       </c>
       <c r="F6">
-        <v>1.107327376778868</v>
+        <v>1.08404553336688</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0632823268412</v>
+        <v>1.070311600105727</v>
       </c>
       <c r="J6">
-        <v>1.092418755751136</v>
+        <v>1.08122945233535</v>
       </c>
       <c r="K6">
-        <v>1.085090233206481</v>
+        <v>1.078216448145985</v>
       </c>
       <c r="L6">
-        <v>1.103652718578068</v>
+        <v>1.088542442012404</v>
       </c>
       <c r="M6">
-        <v>1.109587191296958</v>
+        <v>1.092989674584021</v>
       </c>
       <c r="N6">
-        <v>1.093970115686485</v>
+        <v>1.082764922176418</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.087753128663257</v>
+        <v>1.061474164629496</v>
       </c>
       <c r="D7">
-        <v>1.082395621736297</v>
+        <v>1.067259496386631</v>
       </c>
       <c r="E7">
-        <v>1.100906309855076</v>
+        <v>1.077309557239496</v>
       </c>
       <c r="F7">
-        <v>1.106835816454907</v>
+        <v>1.081730914117386</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063111292515951</v>
+        <v>1.06933915858055</v>
       </c>
       <c r="J7">
-        <v>1.092048088555379</v>
+        <v>1.079420583801009</v>
       </c>
       <c r="K7">
-        <v>1.084766995635591</v>
+        <v>1.076605914675049</v>
       </c>
       <c r="L7">
-        <v>1.103235857076057</v>
+        <v>1.08655383975474</v>
       </c>
       <c r="M7">
-        <v>1.109152281706181</v>
+        <v>1.090930994280802</v>
       </c>
       <c r="N7">
-        <v>1.093598922100794</v>
+        <v>1.080953484841278</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.085753365130636</v>
+        <v>1.05139986620927</v>
       </c>
       <c r="D8">
-        <v>1.080799625676689</v>
+        <v>1.059218632008294</v>
       </c>
       <c r="E8">
-        <v>1.098923288142249</v>
+        <v>1.067646375351036</v>
       </c>
       <c r="F8">
-        <v>1.104778809726809</v>
+        <v>1.071771819481439</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062391876157886</v>
+        <v>1.065123391779401</v>
       </c>
       <c r="J8">
-        <v>1.090494573861748</v>
+        <v>1.071615321981764</v>
       </c>
       <c r="K8">
-        <v>1.083411558392811</v>
+        <v>1.069652027866693</v>
       </c>
       <c r="L8">
-        <v>1.101489826968603</v>
+        <v>1.077981842758058</v>
       </c>
       <c r="M8">
-        <v>1.107331024763541</v>
+        <v>1.08206004289831</v>
       </c>
       <c r="N8">
-        <v>1.092043201238107</v>
+        <v>1.073137138654974</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.082216800851703</v>
+        <v>1.032363995378005</v>
       </c>
       <c r="D9">
-        <v>1.07797485382716</v>
+        <v>1.044040905293792</v>
       </c>
       <c r="E9">
-        <v>1.095418815241004</v>
+        <v>1.049432016296817</v>
       </c>
       <c r="F9">
-        <v>1.101144678430984</v>
+        <v>1.053007959475988</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061106917701758</v>
+        <v>1.057059786379536</v>
       </c>
       <c r="J9">
-        <v>1.087740887320037</v>
+        <v>1.056823473088906</v>
       </c>
       <c r="K9">
-        <v>1.081006321212879</v>
+        <v>1.056457691275776</v>
       </c>
       <c r="L9">
-        <v>1.098399012042137</v>
+        <v>1.061770955843108</v>
       </c>
       <c r="M9">
-        <v>1.104108430750929</v>
+        <v>1.065295819468001</v>
       </c>
       <c r="N9">
-        <v>1.089285604145656</v>
+        <v>1.058324283640039</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.079850032304455</v>
+        <v>1.018643429679299</v>
       </c>
       <c r="D10">
-        <v>1.076082960195333</v>
+        <v>1.033119393087176</v>
       </c>
       <c r="E10">
-        <v>1.093075223245282</v>
+        <v>1.03633886575522</v>
       </c>
       <c r="F10">
-        <v>1.098715109313725</v>
+        <v>1.039525096400633</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060238475440874</v>
+        <v>1.051185529694298</v>
       </c>
       <c r="J10">
-        <v>1.085893815990888</v>
+        <v>1.04613639837625</v>
       </c>
       <c r="K10">
-        <v>1.079391205330557</v>
+        <v>1.046915351287272</v>
       </c>
       <c r="L10">
-        <v>1.096328570800395</v>
+        <v>1.050081608852459</v>
       </c>
       <c r="M10">
-        <v>1.101950646300909</v>
+        <v>1.0532155909592</v>
       </c>
       <c r="N10">
-        <v>1.087435909763357</v>
+        <v>1.047622032055466</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.078822934189897</v>
+        <v>1.012413733258001</v>
       </c>
       <c r="D11">
-        <v>1.075261602126025</v>
+        <v>1.028166817523895</v>
       </c>
       <c r="E11">
-        <v>1.092058592589822</v>
+        <v>1.030403678586346</v>
       </c>
       <c r="F11">
-        <v>1.097661355301779</v>
+        <v>1.033414416692638</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.059859585383999</v>
+        <v>1.048504739004752</v>
       </c>
       <c r="J11">
-        <v>1.085091250442665</v>
+        <v>1.041279052163612</v>
       </c>
       <c r="K11">
-        <v>1.078689008885816</v>
+        <v>1.042576404590752</v>
       </c>
       <c r="L11">
-        <v>1.095429603639667</v>
+        <v>1.044774133765933</v>
       </c>
       <c r="M11">
-        <v>1.101013976068518</v>
+        <v>1.047732547741656</v>
       </c>
       <c r="N11">
-        <v>1.08663220448</v>
+        <v>1.042757787854061</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.078441073146297</v>
+        <v>1.010051976649605</v>
       </c>
       <c r="D12">
-        <v>1.074956182259982</v>
+        <v>1.026290356013269</v>
       </c>
       <c r="E12">
-        <v>1.091680685282598</v>
+        <v>1.028155143874412</v>
       </c>
       <c r="F12">
-        <v>1.097269674217945</v>
+        <v>1.031099563325686</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.059718416763145</v>
+        <v>1.047486479453515</v>
       </c>
       <c r="J12">
-        <v>1.084792717836671</v>
+        <v>1.039436928314167</v>
       </c>
       <c r="K12">
-        <v>1.078427748433628</v>
+        <v>1.04093063158154</v>
       </c>
       <c r="L12">
-        <v>1.09509531043858</v>
+        <v>1.042762109373089</v>
       </c>
       <c r="M12">
-        <v>1.100665695575298</v>
+        <v>1.045654251838669</v>
       </c>
       <c r="N12">
-        <v>1.086333247923463</v>
+        <v>1.040913047977456</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.078522999680866</v>
+        <v>1.01056082084237</v>
       </c>
       <c r="D13">
-        <v>1.075021710946068</v>
+        <v>1.026694588755708</v>
       </c>
       <c r="E13">
-        <v>1.091761760743747</v>
+        <v>1.028639521293456</v>
       </c>
       <c r="F13">
-        <v>1.097353703505256</v>
+        <v>1.031598219697771</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05974871752392</v>
+        <v>1.04770595059949</v>
       </c>
       <c r="J13">
-        <v>1.084856773405542</v>
+        <v>1.039833843968247</v>
       </c>
       <c r="K13">
-        <v>1.078483809408446</v>
+        <v>1.041285250908215</v>
       </c>
       <c r="L13">
-        <v>1.095167034648946</v>
+        <v>1.043195596464306</v>
       </c>
       <c r="M13">
-        <v>1.10074041932875</v>
+        <v>1.046102004176568</v>
       </c>
       <c r="N13">
-        <v>1.086397394458589</v>
+        <v>1.041310527297291</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.078791376655471</v>
+        <v>1.012219511953579</v>
       </c>
       <c r="D14">
-        <v>1.075236362816013</v>
+        <v>1.028012481032196</v>
       </c>
       <c r="E14">
-        <v>1.092027360528621</v>
+        <v>1.030218735627203</v>
       </c>
       <c r="F14">
-        <v>1.097628984381813</v>
+        <v>1.033224015677093</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.059847925177226</v>
+        <v>1.04842104005117</v>
       </c>
       <c r="J14">
-        <v>1.08506658233878</v>
+        <v>1.041127575724101</v>
       </c>
       <c r="K14">
-        <v>1.078667421895821</v>
+        <v>1.042441078776843</v>
       </c>
       <c r="L14">
-        <v>1.095401978593749</v>
+        <v>1.044608670174972</v>
       </c>
       <c r="M14">
-        <v>1.100985194477274</v>
+        <v>1.047561628389181</v>
       </c>
       <c r="N14">
-        <v>1.086607501344578</v>
+        <v>1.042606096300632</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.078956685752986</v>
+        <v>1.013235013746435</v>
       </c>
       <c r="D15">
-        <v>1.075368572857165</v>
+        <v>1.028819488600968</v>
       </c>
       <c r="E15">
-        <v>1.092190967231175</v>
+        <v>1.031185789354208</v>
       </c>
       <c r="F15">
-        <v>1.09779855796726</v>
+        <v>1.034219615900904</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059908992925094</v>
+        <v>1.048858588784337</v>
       </c>
       <c r="J15">
-        <v>1.085195796129709</v>
+        <v>1.041919557098685</v>
       </c>
       <c r="K15">
-        <v>1.07878049397588</v>
+        <v>1.043148608092349</v>
       </c>
       <c r="L15">
-        <v>1.095546685136471</v>
+        <v>1.045473814960252</v>
       </c>
       <c r="M15">
-        <v>1.101135960633842</v>
+        <v>1.048455310797233</v>
       </c>
       <c r="N15">
-        <v>1.08673689863391</v>
+        <v>1.043399202379609</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.079918148728742</v>
+        <v>1.019050430988529</v>
       </c>
       <c r="D16">
-        <v>1.076137425008185</v>
+        <v>1.033443100904465</v>
       </c>
       <c r="E16">
-        <v>1.093142654143528</v>
+        <v>1.03672683509416</v>
       </c>
       <c r="F16">
-        <v>1.09878500615741</v>
+        <v>1.039924560673316</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060263560765613</v>
+        <v>1.05136039949049</v>
       </c>
       <c r="J16">
-        <v>1.085947020580215</v>
+        <v>1.046453646355628</v>
       </c>
       <c r="K16">
-        <v>1.079437747380499</v>
+        <v>1.047198704781991</v>
       </c>
       <c r="L16">
-        <v>1.096388179911411</v>
+        <v>1.050428367521848</v>
       </c>
       <c r="M16">
-        <v>1.102012760083566</v>
+        <v>1.053573859508789</v>
       </c>
       <c r="N16">
-        <v>1.087489189909303</v>
+        <v>1.047939730563363</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.08052063397252</v>
+        <v>1.022618095589096</v>
       </c>
       <c r="D17">
-        <v>1.076619123565292</v>
+        <v>1.036281359419732</v>
       </c>
       <c r="E17">
-        <v>1.093739123287053</v>
+        <v>1.040128769049074</v>
       </c>
       <c r="F17">
-        <v>1.099403308092846</v>
+        <v>1.043427419181022</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060485206292425</v>
+        <v>1.052891737217016</v>
       </c>
       <c r="J17">
-        <v>1.086417496449979</v>
+        <v>1.049234007839984</v>
       </c>
       <c r="K17">
-        <v>1.079849259880762</v>
+        <v>1.049681805959049</v>
       </c>
       <c r="L17">
-        <v>1.096915364910024</v>
+        <v>1.05346796929054</v>
       </c>
       <c r="M17">
-        <v>1.102562121924176</v>
+        <v>1.056714568907991</v>
       </c>
       <c r="N17">
-        <v>1.087960333908766</v>
+        <v>1.050724040479939</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.080871834898749</v>
+        <v>1.024671536691143</v>
       </c>
       <c r="D18">
-        <v>1.076899882675289</v>
+        <v>1.037915547893728</v>
       </c>
       <c r="E18">
-        <v>1.094086856739539</v>
+        <v>1.042087715581387</v>
       </c>
       <c r="F18">
-        <v>1.099763786426212</v>
+        <v>1.045444591476893</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0606142137785</v>
+        <v>1.053771842841797</v>
       </c>
       <c r="J18">
-        <v>1.086691650177847</v>
+        <v>1.050833826575692</v>
       </c>
       <c r="K18">
-        <v>1.080089014535199</v>
+        <v>1.051110401737656</v>
       </c>
       <c r="L18">
-        <v>1.09722262694131</v>
+        <v>1.055217462071526</v>
       </c>
       <c r="M18">
-        <v>1.10288233065152</v>
+        <v>1.058522434982453</v>
       </c>
       <c r="N18">
-        <v>1.088234876966374</v>
+        <v>1.052326131141754</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.080991548567729</v>
+        <v>1.025367163770411</v>
       </c>
       <c r="D19">
-        <v>1.076995579291343</v>
+        <v>1.038469240120533</v>
       </c>
       <c r="E19">
-        <v>1.094205395124954</v>
+        <v>1.042751479990359</v>
       </c>
       <c r="F19">
-        <v>1.09988667222377</v>
+        <v>1.046128103866139</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060658155540291</v>
+        <v>1.054069767550733</v>
       </c>
       <c r="J19">
-        <v>1.086785084475738</v>
+        <v>1.051375700450884</v>
       </c>
       <c r="K19">
-        <v>1.080170718465449</v>
+        <v>1.051594249358001</v>
       </c>
       <c r="L19">
-        <v>1.097327355564372</v>
+        <v>1.055810118153052</v>
       </c>
       <c r="M19">
-        <v>1.102991475691988</v>
+        <v>1.059134895968263</v>
       </c>
       <c r="N19">
-        <v>1.088328443951686</v>
+        <v>1.052868774540003</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.080456015681416</v>
+        <v>1.022238195106349</v>
       </c>
       <c r="D20">
-        <v>1.076567463383548</v>
+        <v>1.035979068599724</v>
       </c>
       <c r="E20">
-        <v>1.093675146156468</v>
+        <v>1.039766422422587</v>
       </c>
       <c r="F20">
-        <v>1.099336987459453</v>
+        <v>1.043054311502488</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060461454257026</v>
+        <v>1.052728806716591</v>
       </c>
       <c r="J20">
-        <v>1.086367046502483</v>
+        <v>1.04893799142596</v>
       </c>
       <c r="K20">
-        <v>1.079805136834546</v>
+        <v>1.049417456356919</v>
       </c>
       <c r="L20">
-        <v>1.0968588274259</v>
+        <v>1.053144299654146</v>
       </c>
       <c r="M20">
-        <v>1.102503203906059</v>
+        <v>1.056380114292435</v>
       </c>
       <c r="N20">
-        <v>1.087909812316558</v>
+        <v>1.050427603688654</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.078712356095737</v>
+        <v>1.011732426017164</v>
       </c>
       <c r="D21">
-        <v>1.075173162381936</v>
+        <v>1.027625440584367</v>
       </c>
       <c r="E21">
-        <v>1.091949155963379</v>
+        <v>1.029754944442933</v>
       </c>
       <c r="F21">
-        <v>1.0975479285514</v>
+        <v>1.032746539680405</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05981872295299</v>
+        <v>1.048211101419602</v>
       </c>
       <c r="J21">
-        <v>1.085004810604206</v>
+        <v>1.040747679320509</v>
       </c>
       <c r="K21">
-        <v>1.078613364613156</v>
+        <v>1.042101683561701</v>
       </c>
       <c r="L21">
-        <v>1.095332803925691</v>
+        <v>1.044193707575823</v>
       </c>
       <c r="M21">
-        <v>1.100913124289306</v>
+        <v>1.047132987978133</v>
       </c>
       <c r="N21">
-        <v>1.086545641887055</v>
+        <v>1.042225660400571</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.077614012018516</v>
+        <v>1.00484798214117</v>
       </c>
       <c r="D22">
-        <v>1.074294591938371</v>
+        <v>1.022157979424864</v>
       </c>
       <c r="E22">
-        <v>1.09086230158654</v>
+        <v>1.023203674047378</v>
       </c>
       <c r="F22">
-        <v>1.096421509830987</v>
+        <v>1.026002350364246</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0594121109546</v>
+        <v>1.045239360460305</v>
       </c>
       <c r="J22">
-        <v>1.084145861708309</v>
+        <v>1.035376857232426</v>
       </c>
       <c r="K22">
-        <v>1.0778615391038</v>
+        <v>1.037302901796838</v>
       </c>
       <c r="L22">
-        <v>1.094371148334863</v>
+        <v>1.038329062757636</v>
       </c>
       <c r="M22">
-        <v>1.099911294067123</v>
+        <v>1.04107571498374</v>
       </c>
       <c r="N22">
-        <v>1.085685473185204</v>
+        <v>1.036847211129081</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.07819646127411</v>
+        <v>1.008525650518285</v>
       </c>
       <c r="D23">
-        <v>1.074760522930815</v>
+        <v>1.025078001878093</v>
       </c>
       <c r="E23">
-        <v>1.091438623631512</v>
+        <v>1.026702448477806</v>
       </c>
       <c r="F23">
-        <v>1.097018797313884</v>
+        <v>1.029604067597342</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05962790210053</v>
+        <v>1.046827880275684</v>
       </c>
       <c r="J23">
-        <v>1.084601442243338</v>
+        <v>1.038246257065486</v>
       </c>
       <c r="K23">
-        <v>1.078260336282076</v>
+        <v>1.039866807531163</v>
       </c>
       <c r="L23">
-        <v>1.09488114997478</v>
+        <v>1.041461848976264</v>
       </c>
       <c r="M23">
-        <v>1.100442583657715</v>
+        <v>1.044311243959387</v>
       </c>
       <c r="N23">
-        <v>1.086141700696848</v>
+        <v>1.039720685839029</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.080485214581129</v>
+        <v>1.022409940492171</v>
       </c>
       <c r="D24">
-        <v>1.076590807037412</v>
+        <v>1.036115726451096</v>
       </c>
       <c r="E24">
-        <v>1.093704055214788</v>
+        <v>1.039930229289678</v>
       </c>
       <c r="F24">
-        <v>1.099366955414356</v>
+        <v>1.043222982800374</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060472187628035</v>
+        <v>1.05280246833309</v>
       </c>
       <c r="J24">
-        <v>1.086389843487018</v>
+        <v>1.049071815988777</v>
       </c>
       <c r="K24">
-        <v>1.079825074985541</v>
+        <v>1.04953696539141</v>
       </c>
       <c r="L24">
-        <v>1.096884375010966</v>
+        <v>1.053290624245325</v>
       </c>
       <c r="M24">
-        <v>1.102529827116998</v>
+        <v>1.056531314000914</v>
       </c>
       <c r="N24">
-        <v>1.087932641675426</v>
+        <v>1.0505616182977</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.083132647106508</v>
+        <v>1.037453306144391</v>
       </c>
       <c r="D25">
-        <v>1.078706634124457</v>
+        <v>1.04809620048654</v>
       </c>
       <c r="E25">
-        <v>1.096326053967808</v>
+        <v>1.05429607082588</v>
       </c>
       <c r="F25">
-        <v>1.102085354287413</v>
+        <v>1.058017829851624</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061441175769652</v>
+        <v>1.059226519559209</v>
       </c>
       <c r="J25">
-        <v>1.088454740647201</v>
+        <v>1.060782772130862</v>
       </c>
       <c r="K25">
-        <v>1.081630156475764</v>
+        <v>1.059991099117058</v>
       </c>
       <c r="L25">
-        <v>1.099199774896033</v>
+        <v>1.066106173546836</v>
       </c>
       <c r="M25">
-        <v>1.104943170743216</v>
+        <v>1.069777629975672</v>
       </c>
       <c r="N25">
-        <v>1.090000471226424</v>
+        <v>1.062289205340773</v>
       </c>
     </row>
   </sheetData>
